--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_IE_01_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_IE_01_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27BD014-7518-4324-8838-0E3FEB7FFDDE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC41D57-BB87-446A-A4CE-9D8AE5068233}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,12 +374,6 @@
     <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,21 +391,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -449,6 +428,27 @@
     <xf numFmtId="37" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -939,7 +939,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -949,112 +949,112 @@
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.625" customWidth="1"/>
     <col min="14" max="14" width="1.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="14"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="16" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9" t="s">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_IE_01_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_IE_01_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC41D57-BB87-446A-A4CE-9D8AE5068233}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4885E86A-19D4-4D3C-9C88-BAD09EECBB20}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -949,7 +949,7 @@
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
     <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.625" customWidth="1"/>
     <col min="14" max="14" width="1.375" customWidth="1"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_IE_01_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_IE_01_Initial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4885E86A-19D4-4D3C-9C88-BAD09EECBB20}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B9EA68-C22F-4282-A6BD-111CC68C79E4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -936,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1056,6 +1056,23 @@
       <c r="N4" s="20"/>
       <c r="O4" s="21"/>
     </row>
+    <row r="5" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
